--- a/distances_26-11 al 03-12.xlsx
+++ b/distances_26-11 al 03-12.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Periodo 26-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\consumo-bca-dashboard-limpio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BB7E36-F576-458B-8360-ED156ECB1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4AF41B-5094-4C97-8615-0C005E52FBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="670">
   <si>
     <t>Grupo</t>
   </si>
@@ -2468,10 +2468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K324"/>
+  <dimension ref="A1:K433"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C205" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="H325" sqref="H325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13829,17 +13829,3511 @@
         <v>14</v>
       </c>
     </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>11</v>
+      </c>
+      <c r="B325" t="s">
+        <v>12</v>
+      </c>
+      <c r="C325" t="s">
+        <v>13</v>
+      </c>
+      <c r="D325" t="s">
+        <v>14</v>
+      </c>
+      <c r="E325" t="s">
+        <v>15</v>
+      </c>
+      <c r="F325" t="s">
+        <v>14</v>
+      </c>
+      <c r="G325" t="s">
+        <v>14</v>
+      </c>
+      <c r="H325" t="s">
+        <v>558</v>
+      </c>
+      <c r="I325">
+        <v>16</v>
+      </c>
+      <c r="J325">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>11</v>
+      </c>
+      <c r="B326" t="s">
+        <v>17</v>
+      </c>
+      <c r="C326" t="s">
+        <v>18</v>
+      </c>
+      <c r="D326" t="s">
+        <v>14</v>
+      </c>
+      <c r="E326" t="s">
+        <v>19</v>
+      </c>
+      <c r="F326" t="s">
+        <v>14</v>
+      </c>
+      <c r="G326" t="s">
+        <v>14</v>
+      </c>
+      <c r="H326" t="s">
+        <v>559</v>
+      </c>
+      <c r="I326">
+        <v>8</v>
+      </c>
+      <c r="J326">
+        <v>2197.5300000000002</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>11</v>
+      </c>
+      <c r="B327" t="s">
+        <v>560</v>
+      </c>
+      <c r="C327" t="s">
+        <v>22</v>
+      </c>
+      <c r="D327" t="s">
+        <v>14</v>
+      </c>
+      <c r="E327" t="s">
+        <v>23</v>
+      </c>
+      <c r="F327" t="s">
+        <v>14</v>
+      </c>
+      <c r="G327" t="s">
+        <v>14</v>
+      </c>
+      <c r="H327" t="s">
+        <v>561</v>
+      </c>
+      <c r="I327">
+        <v>12</v>
+      </c>
+      <c r="J327">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>11</v>
+      </c>
+      <c r="B328" t="s">
+        <v>25</v>
+      </c>
+      <c r="C328" t="s">
+        <v>26</v>
+      </c>
+      <c r="D328" t="s">
+        <v>14</v>
+      </c>
+      <c r="E328" t="s">
+        <v>27</v>
+      </c>
+      <c r="F328" t="s">
+        <v>14</v>
+      </c>
+      <c r="G328" t="s">
+        <v>14</v>
+      </c>
+      <c r="H328" t="s">
+        <v>562</v>
+      </c>
+      <c r="I328">
+        <v>15</v>
+      </c>
+      <c r="J328">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>11</v>
+      </c>
+      <c r="B329" t="s">
+        <v>29</v>
+      </c>
+      <c r="C329" t="s">
+        <v>30</v>
+      </c>
+      <c r="D329" t="s">
+        <v>14</v>
+      </c>
+      <c r="E329" t="s">
+        <v>31</v>
+      </c>
+      <c r="F329" t="s">
+        <v>14</v>
+      </c>
+      <c r="G329" t="s">
+        <v>14</v>
+      </c>
+      <c r="H329" t="s">
+        <v>563</v>
+      </c>
+      <c r="I329">
+        <v>18</v>
+      </c>
+      <c r="J329">
+        <v>1442.76</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>11</v>
+      </c>
+      <c r="B330" t="s">
+        <v>33</v>
+      </c>
+      <c r="C330" t="s">
+        <v>34</v>
+      </c>
+      <c r="D330" t="s">
+        <v>14</v>
+      </c>
+      <c r="E330" t="s">
+        <v>35</v>
+      </c>
+      <c r="F330" t="s">
+        <v>14</v>
+      </c>
+      <c r="G330" t="s">
+        <v>14</v>
+      </c>
+      <c r="H330" t="s">
+        <v>564</v>
+      </c>
+      <c r="I330">
+        <v>4</v>
+      </c>
+      <c r="J330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>11</v>
+      </c>
+      <c r="B331" t="s">
+        <v>37</v>
+      </c>
+      <c r="C331" t="s">
+        <v>38</v>
+      </c>
+      <c r="D331" t="s">
+        <v>14</v>
+      </c>
+      <c r="E331" t="s">
+        <v>39</v>
+      </c>
+      <c r="F331" t="s">
+        <v>14</v>
+      </c>
+      <c r="G331" t="s">
+        <v>14</v>
+      </c>
+      <c r="H331" t="s">
+        <v>565</v>
+      </c>
+      <c r="I331">
+        <v>10</v>
+      </c>
+      <c r="J331">
+        <v>451.5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>11</v>
+      </c>
+      <c r="B332" t="s">
+        <v>41</v>
+      </c>
+      <c r="C332" t="s">
+        <v>42</v>
+      </c>
+      <c r="D332" t="s">
+        <v>14</v>
+      </c>
+      <c r="E332" t="s">
+        <v>43</v>
+      </c>
+      <c r="F332" t="s">
+        <v>14</v>
+      </c>
+      <c r="G332" t="s">
+        <v>14</v>
+      </c>
+      <c r="H332" t="s">
+        <v>566</v>
+      </c>
+      <c r="I332">
+        <v>15</v>
+      </c>
+      <c r="J332">
+        <v>2372.1799999999998</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>11</v>
+      </c>
+      <c r="B333" t="s">
+        <v>45</v>
+      </c>
+      <c r="C333" t="s">
+        <v>46</v>
+      </c>
+      <c r="D333" t="s">
+        <v>14</v>
+      </c>
+      <c r="E333" t="s">
+        <v>47</v>
+      </c>
+      <c r="F333" t="s">
+        <v>14</v>
+      </c>
+      <c r="G333" t="s">
+        <v>14</v>
+      </c>
+      <c r="H333" t="s">
+        <v>567</v>
+      </c>
+      <c r="I333">
+        <v>17</v>
+      </c>
+      <c r="J333">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>11</v>
+      </c>
+      <c r="B334" t="s">
+        <v>49</v>
+      </c>
+      <c r="C334" t="s">
+        <v>50</v>
+      </c>
+      <c r="D334" t="s">
+        <v>14</v>
+      </c>
+      <c r="E334" t="s">
+        <v>51</v>
+      </c>
+      <c r="F334" t="s">
+        <v>14</v>
+      </c>
+      <c r="G334" t="s">
+        <v>14</v>
+      </c>
+      <c r="H334" t="s">
+        <v>568</v>
+      </c>
+      <c r="I334">
+        <v>17</v>
+      </c>
+      <c r="J334">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>11</v>
+      </c>
+      <c r="B335" t="s">
+        <v>53</v>
+      </c>
+      <c r="C335" t="s">
+        <v>54</v>
+      </c>
+      <c r="D335" t="s">
+        <v>14</v>
+      </c>
+      <c r="E335" t="s">
+        <v>55</v>
+      </c>
+      <c r="F335" t="s">
+        <v>14</v>
+      </c>
+      <c r="G335" t="s">
+        <v>14</v>
+      </c>
+      <c r="H335" t="s">
+        <v>569</v>
+      </c>
+      <c r="I335">
+        <v>13</v>
+      </c>
+      <c r="J335">
+        <v>3751.85</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>11</v>
+      </c>
+      <c r="B336" t="s">
+        <v>57</v>
+      </c>
+      <c r="C336" t="s">
+        <v>58</v>
+      </c>
+      <c r="D336" t="s">
+        <v>14</v>
+      </c>
+      <c r="E336" t="s">
+        <v>59</v>
+      </c>
+      <c r="F336" t="s">
+        <v>14</v>
+      </c>
+      <c r="G336" t="s">
+        <v>14</v>
+      </c>
+      <c r="H336" t="s">
+        <v>570</v>
+      </c>
+      <c r="I336">
+        <v>12</v>
+      </c>
+      <c r="J336">
+        <v>3835.06</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>11</v>
+      </c>
+      <c r="B337" t="s">
+        <v>61</v>
+      </c>
+      <c r="C337" t="s">
+        <v>62</v>
+      </c>
+      <c r="D337" t="s">
+        <v>14</v>
+      </c>
+      <c r="E337" t="s">
+        <v>63</v>
+      </c>
+      <c r="F337" t="s">
+        <v>14</v>
+      </c>
+      <c r="G337" t="s">
+        <v>14</v>
+      </c>
+      <c r="H337" t="s">
+        <v>571</v>
+      </c>
+      <c r="I337">
+        <v>16</v>
+      </c>
+      <c r="J337">
+        <v>3166.69</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>11</v>
+      </c>
+      <c r="B338" t="s">
+        <v>65</v>
+      </c>
+      <c r="C338" t="s">
+        <v>66</v>
+      </c>
+      <c r="D338" t="s">
+        <v>14</v>
+      </c>
+      <c r="E338" t="s">
+        <v>67</v>
+      </c>
+      <c r="F338" t="s">
+        <v>14</v>
+      </c>
+      <c r="G338" t="s">
+        <v>14</v>
+      </c>
+      <c r="H338" t="s">
+        <v>572</v>
+      </c>
+      <c r="I338">
+        <v>13</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>11</v>
+      </c>
+      <c r="B339" t="s">
+        <v>471</v>
+      </c>
+      <c r="C339" t="s">
+        <v>70</v>
+      </c>
+      <c r="D339" t="s">
+        <v>14</v>
+      </c>
+      <c r="E339" t="s">
+        <v>71</v>
+      </c>
+      <c r="F339" t="s">
+        <v>14</v>
+      </c>
+      <c r="G339" t="s">
+        <v>14</v>
+      </c>
+      <c r="H339" t="s">
+        <v>573</v>
+      </c>
+      <c r="I339">
+        <v>16</v>
+      </c>
+      <c r="J339">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>11</v>
+      </c>
+      <c r="B340" t="s">
+        <v>73</v>
+      </c>
+      <c r="C340" t="s">
+        <v>74</v>
+      </c>
+      <c r="D340" t="s">
+        <v>14</v>
+      </c>
+      <c r="E340" t="s">
+        <v>75</v>
+      </c>
+      <c r="F340" t="s">
+        <v>14</v>
+      </c>
+      <c r="G340" t="s">
+        <v>14</v>
+      </c>
+      <c r="H340" t="s">
+        <v>574</v>
+      </c>
+      <c r="I340">
+        <v>13</v>
+      </c>
+      <c r="J340">
+        <v>2438.5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>11</v>
+      </c>
+      <c r="B341" t="s">
+        <v>77</v>
+      </c>
+      <c r="C341" t="s">
+        <v>78</v>
+      </c>
+      <c r="D341" t="s">
+        <v>14</v>
+      </c>
+      <c r="E341" t="s">
+        <v>79</v>
+      </c>
+      <c r="F341" t="s">
+        <v>14</v>
+      </c>
+      <c r="G341" t="s">
+        <v>14</v>
+      </c>
+      <c r="H341" t="s">
+        <v>575</v>
+      </c>
+      <c r="I341">
+        <v>7</v>
+      </c>
+      <c r="J341">
+        <v>1467.13</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>11</v>
+      </c>
+      <c r="B342" t="s">
+        <v>475</v>
+      </c>
+      <c r="C342" t="s">
+        <v>82</v>
+      </c>
+      <c r="D342" t="s">
+        <v>14</v>
+      </c>
+      <c r="E342" t="s">
+        <v>83</v>
+      </c>
+      <c r="F342" t="s">
+        <v>14</v>
+      </c>
+      <c r="G342" t="s">
+        <v>14</v>
+      </c>
+      <c r="H342" t="s">
+        <v>576</v>
+      </c>
+      <c r="I342">
+        <v>9</v>
+      </c>
+      <c r="J342">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>11</v>
+      </c>
+      <c r="B343" t="s">
+        <v>85</v>
+      </c>
+      <c r="C343" t="s">
+        <v>86</v>
+      </c>
+      <c r="D343" t="s">
+        <v>14</v>
+      </c>
+      <c r="E343" t="s">
+        <v>87</v>
+      </c>
+      <c r="F343" t="s">
+        <v>14</v>
+      </c>
+      <c r="G343" t="s">
+        <v>14</v>
+      </c>
+      <c r="H343" t="s">
+        <v>577</v>
+      </c>
+      <c r="I343">
+        <v>13</v>
+      </c>
+      <c r="J343">
+        <v>3243.79</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>11</v>
+      </c>
+      <c r="B344" t="s">
+        <v>578</v>
+      </c>
+      <c r="C344" t="s">
+        <v>90</v>
+      </c>
+      <c r="D344" t="s">
+        <v>14</v>
+      </c>
+      <c r="E344" t="s">
+        <v>91</v>
+      </c>
+      <c r="F344" t="s">
+        <v>14</v>
+      </c>
+      <c r="G344" t="s">
+        <v>14</v>
+      </c>
+      <c r="H344" t="s">
+        <v>579</v>
+      </c>
+      <c r="I344">
+        <v>16</v>
+      </c>
+      <c r="J344">
+        <v>2715.51</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>11</v>
+      </c>
+      <c r="B345" t="s">
+        <v>93</v>
+      </c>
+      <c r="C345" t="s">
+        <v>94</v>
+      </c>
+      <c r="D345" t="s">
+        <v>14</v>
+      </c>
+      <c r="E345" t="s">
+        <v>95</v>
+      </c>
+      <c r="F345" t="s">
+        <v>14</v>
+      </c>
+      <c r="G345" t="s">
+        <v>14</v>
+      </c>
+      <c r="H345" t="s">
+        <v>580</v>
+      </c>
+      <c r="I345">
+        <v>22</v>
+      </c>
+      <c r="J345">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>11</v>
+      </c>
+      <c r="B346" t="s">
+        <v>100</v>
+      </c>
+      <c r="C346" t="s">
+        <v>101</v>
+      </c>
+      <c r="D346" t="s">
+        <v>14</v>
+      </c>
+      <c r="E346" t="s">
+        <v>102</v>
+      </c>
+      <c r="F346" t="s">
+        <v>14</v>
+      </c>
+      <c r="G346" t="s">
+        <v>14</v>
+      </c>
+      <c r="H346" t="s">
+        <v>581</v>
+      </c>
+      <c r="I346">
+        <v>15</v>
+      </c>
+      <c r="J346">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>11</v>
+      </c>
+      <c r="B347" t="s">
+        <v>104</v>
+      </c>
+      <c r="C347" t="s">
+        <v>105</v>
+      </c>
+      <c r="D347" t="s">
+        <v>14</v>
+      </c>
+      <c r="E347" t="s">
+        <v>106</v>
+      </c>
+      <c r="F347" t="s">
+        <v>14</v>
+      </c>
+      <c r="G347" t="s">
+        <v>14</v>
+      </c>
+      <c r="H347" t="s">
+        <v>582</v>
+      </c>
+      <c r="I347">
+        <v>16</v>
+      </c>
+      <c r="J347">
+        <v>1827.51</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>11</v>
+      </c>
+      <c r="B348" t="s">
+        <v>583</v>
+      </c>
+      <c r="C348" t="s">
+        <v>109</v>
+      </c>
+      <c r="D348" t="s">
+        <v>14</v>
+      </c>
+      <c r="E348" t="s">
+        <v>110</v>
+      </c>
+      <c r="F348" t="s">
+        <v>14</v>
+      </c>
+      <c r="G348" t="s">
+        <v>14</v>
+      </c>
+      <c r="H348" t="s">
+        <v>584</v>
+      </c>
+      <c r="I348">
+        <v>16</v>
+      </c>
+      <c r="J348">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>11</v>
+      </c>
+      <c r="B349" t="s">
+        <v>112</v>
+      </c>
+      <c r="C349" t="s">
+        <v>113</v>
+      </c>
+      <c r="D349" t="s">
+        <v>14</v>
+      </c>
+      <c r="E349" t="s">
+        <v>114</v>
+      </c>
+      <c r="F349" t="s">
+        <v>14</v>
+      </c>
+      <c r="G349" t="s">
+        <v>14</v>
+      </c>
+      <c r="H349" t="s">
+        <v>585</v>
+      </c>
+      <c r="I349">
+        <v>22</v>
+      </c>
+      <c r="J349">
+        <v>2905.76</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>11</v>
+      </c>
+      <c r="B350" t="s">
+        <v>117</v>
+      </c>
+      <c r="C350" t="s">
+        <v>117</v>
+      </c>
+      <c r="D350" t="s">
+        <v>14</v>
+      </c>
+      <c r="E350" t="s">
+        <v>118</v>
+      </c>
+      <c r="F350" t="s">
+        <v>14</v>
+      </c>
+      <c r="G350" t="s">
+        <v>14</v>
+      </c>
+      <c r="H350" t="s">
+        <v>586</v>
+      </c>
+      <c r="I350">
+        <v>8</v>
+      </c>
+      <c r="J350">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>11</v>
+      </c>
+      <c r="B351" t="s">
+        <v>120</v>
+      </c>
+      <c r="C351" t="s">
+        <v>121</v>
+      </c>
+      <c r="D351" t="s">
+        <v>14</v>
+      </c>
+      <c r="E351" t="s">
+        <v>122</v>
+      </c>
+      <c r="F351" t="s">
+        <v>14</v>
+      </c>
+      <c r="G351" t="s">
+        <v>14</v>
+      </c>
+      <c r="H351" t="s">
+        <v>587</v>
+      </c>
+      <c r="I351">
+        <v>16</v>
+      </c>
+      <c r="J351">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>11</v>
+      </c>
+      <c r="B352" t="s">
+        <v>124</v>
+      </c>
+      <c r="C352" t="s">
+        <v>125</v>
+      </c>
+      <c r="D352" t="s">
+        <v>14</v>
+      </c>
+      <c r="E352" t="s">
+        <v>126</v>
+      </c>
+      <c r="F352" t="s">
+        <v>14</v>
+      </c>
+      <c r="G352" t="s">
+        <v>14</v>
+      </c>
+      <c r="H352" t="s">
+        <v>485</v>
+      </c>
+      <c r="I352">
+        <v>1</v>
+      </c>
+      <c r="J352">
+        <v>261.75</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>11</v>
+      </c>
+      <c r="B353" t="s">
+        <v>128</v>
+      </c>
+      <c r="C353" t="s">
+        <v>129</v>
+      </c>
+      <c r="D353" t="s">
+        <v>14</v>
+      </c>
+      <c r="E353" t="s">
+        <v>130</v>
+      </c>
+      <c r="F353" t="s">
+        <v>14</v>
+      </c>
+      <c r="G353" t="s">
+        <v>14</v>
+      </c>
+      <c r="H353" t="s">
+        <v>588</v>
+      </c>
+      <c r="I353">
+        <v>20</v>
+      </c>
+      <c r="J353">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>11</v>
+      </c>
+      <c r="B354" t="s">
+        <v>132</v>
+      </c>
+      <c r="C354" t="s">
+        <v>132</v>
+      </c>
+      <c r="D354" t="s">
+        <v>14</v>
+      </c>
+      <c r="E354" t="s">
+        <v>133</v>
+      </c>
+      <c r="F354" t="s">
+        <v>14</v>
+      </c>
+      <c r="G354" t="s">
+        <v>14</v>
+      </c>
+      <c r="H354" t="s">
+        <v>487</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354">
+        <v>155.69</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>11</v>
+      </c>
+      <c r="B355" t="s">
+        <v>135</v>
+      </c>
+      <c r="C355" t="s">
+        <v>136</v>
+      </c>
+      <c r="D355" t="s">
+        <v>14</v>
+      </c>
+      <c r="E355" t="s">
+        <v>137</v>
+      </c>
+      <c r="F355" t="s">
+        <v>14</v>
+      </c>
+      <c r="G355" t="s">
+        <v>14</v>
+      </c>
+      <c r="H355" t="s">
+        <v>589</v>
+      </c>
+      <c r="I355">
+        <v>14</v>
+      </c>
+      <c r="J355">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>11</v>
+      </c>
+      <c r="B356" t="s">
+        <v>139</v>
+      </c>
+      <c r="C356" t="s">
+        <v>140</v>
+      </c>
+      <c r="D356" t="s">
+        <v>14</v>
+      </c>
+      <c r="E356" t="s">
+        <v>141</v>
+      </c>
+      <c r="F356" t="s">
+        <v>14</v>
+      </c>
+      <c r="G356" t="s">
+        <v>14</v>
+      </c>
+      <c r="H356" t="s">
+        <v>590</v>
+      </c>
+      <c r="I356">
+        <v>4</v>
+      </c>
+      <c r="J356">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>11</v>
+      </c>
+      <c r="B357" t="s">
+        <v>143</v>
+      </c>
+      <c r="C357" t="s">
+        <v>144</v>
+      </c>
+      <c r="D357" t="s">
+        <v>14</v>
+      </c>
+      <c r="E357" t="s">
+        <v>145</v>
+      </c>
+      <c r="F357" t="s">
+        <v>14</v>
+      </c>
+      <c r="G357" t="s">
+        <v>14</v>
+      </c>
+      <c r="H357" t="s">
+        <v>591</v>
+      </c>
+      <c r="I357">
+        <v>14</v>
+      </c>
+      <c r="J357">
+        <v>270305.42</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>11</v>
+      </c>
+      <c r="B358" t="s">
+        <v>592</v>
+      </c>
+      <c r="C358" t="s">
+        <v>148</v>
+      </c>
+      <c r="D358" t="s">
+        <v>14</v>
+      </c>
+      <c r="E358" t="s">
+        <v>149</v>
+      </c>
+      <c r="F358" t="s">
+        <v>14</v>
+      </c>
+      <c r="G358" t="s">
+        <v>14</v>
+      </c>
+      <c r="H358" t="s">
+        <v>593</v>
+      </c>
+      <c r="I358">
+        <v>15</v>
+      </c>
+      <c r="J358">
+        <v>1563.56</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>11</v>
+      </c>
+      <c r="B359" t="s">
+        <v>151</v>
+      </c>
+      <c r="C359" t="s">
+        <v>152</v>
+      </c>
+      <c r="D359" t="s">
+        <v>14</v>
+      </c>
+      <c r="E359" t="s">
+        <v>153</v>
+      </c>
+      <c r="F359" t="s">
+        <v>14</v>
+      </c>
+      <c r="G359" t="s">
+        <v>14</v>
+      </c>
+      <c r="H359" t="s">
+        <v>594</v>
+      </c>
+      <c r="I359">
+        <v>21</v>
+      </c>
+      <c r="J359">
+        <v>3654.22</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>11</v>
+      </c>
+      <c r="B360" t="s">
+        <v>595</v>
+      </c>
+      <c r="C360" t="s">
+        <v>156</v>
+      </c>
+      <c r="D360" t="s">
+        <v>14</v>
+      </c>
+      <c r="E360" t="s">
+        <v>157</v>
+      </c>
+      <c r="F360" t="s">
+        <v>14</v>
+      </c>
+      <c r="G360" t="s">
+        <v>14</v>
+      </c>
+      <c r="H360" t="s">
+        <v>596</v>
+      </c>
+      <c r="I360">
+        <v>12</v>
+      </c>
+      <c r="J360">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>11</v>
+      </c>
+      <c r="B361" t="s">
+        <v>159</v>
+      </c>
+      <c r="C361" t="s">
+        <v>160</v>
+      </c>
+      <c r="D361" t="s">
+        <v>14</v>
+      </c>
+      <c r="E361" t="s">
+        <v>161</v>
+      </c>
+      <c r="F361" t="s">
+        <v>14</v>
+      </c>
+      <c r="G361" t="s">
+        <v>14</v>
+      </c>
+      <c r="H361" t="s">
+        <v>597</v>
+      </c>
+      <c r="I361">
+        <v>13</v>
+      </c>
+      <c r="J361">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>11</v>
+      </c>
+      <c r="B362" t="s">
+        <v>163</v>
+      </c>
+      <c r="C362" t="s">
+        <v>164</v>
+      </c>
+      <c r="D362" t="s">
+        <v>14</v>
+      </c>
+      <c r="E362" t="s">
+        <v>165</v>
+      </c>
+      <c r="F362" t="s">
+        <v>14</v>
+      </c>
+      <c r="G362" t="s">
+        <v>14</v>
+      </c>
+      <c r="H362" t="s">
+        <v>598</v>
+      </c>
+      <c r="I362">
+        <v>13</v>
+      </c>
+      <c r="J362">
+        <v>2614.0700000000002</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>11</v>
+      </c>
+      <c r="B363" t="s">
+        <v>167</v>
+      </c>
+      <c r="C363" t="s">
+        <v>168</v>
+      </c>
+      <c r="D363" t="s">
+        <v>14</v>
+      </c>
+      <c r="E363" t="s">
+        <v>169</v>
+      </c>
+      <c r="F363" t="s">
+        <v>14</v>
+      </c>
+      <c r="G363" t="s">
+        <v>14</v>
+      </c>
+      <c r="H363" t="s">
+        <v>599</v>
+      </c>
+      <c r="I363">
+        <v>11</v>
+      </c>
+      <c r="J363">
+        <v>3126.15</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>11</v>
+      </c>
+      <c r="B364" t="s">
+        <v>171</v>
+      </c>
+      <c r="C364" t="s">
+        <v>172</v>
+      </c>
+      <c r="D364" t="s">
+        <v>14</v>
+      </c>
+      <c r="E364" t="s">
+        <v>173</v>
+      </c>
+      <c r="F364" t="s">
+        <v>14</v>
+      </c>
+      <c r="G364" t="s">
+        <v>14</v>
+      </c>
+      <c r="H364" t="s">
+        <v>497</v>
+      </c>
+      <c r="I364">
+        <v>2</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>11</v>
+      </c>
+      <c r="B365" t="s">
+        <v>175</v>
+      </c>
+      <c r="C365" t="s">
+        <v>176</v>
+      </c>
+      <c r="D365" t="s">
+        <v>14</v>
+      </c>
+      <c r="E365" t="s">
+        <v>177</v>
+      </c>
+      <c r="F365" t="s">
+        <v>14</v>
+      </c>
+      <c r="G365" t="s">
+        <v>14</v>
+      </c>
+      <c r="H365" t="s">
+        <v>600</v>
+      </c>
+      <c r="I365">
+        <v>11</v>
+      </c>
+      <c r="J365">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>11</v>
+      </c>
+      <c r="B366" t="s">
+        <v>179</v>
+      </c>
+      <c r="C366" t="s">
+        <v>180</v>
+      </c>
+      <c r="D366" t="s">
+        <v>14</v>
+      </c>
+      <c r="E366" t="s">
+        <v>181</v>
+      </c>
+      <c r="F366" t="s">
+        <v>14</v>
+      </c>
+      <c r="G366" t="s">
+        <v>14</v>
+      </c>
+      <c r="H366" t="s">
+        <v>601</v>
+      </c>
+      <c r="I366">
+        <v>17</v>
+      </c>
+      <c r="J366">
+        <v>2615.44</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>11</v>
+      </c>
+      <c r="B367" t="s">
+        <v>183</v>
+      </c>
+      <c r="C367" t="s">
+        <v>184</v>
+      </c>
+      <c r="D367" t="s">
+        <v>14</v>
+      </c>
+      <c r="E367" t="s">
+        <v>185</v>
+      </c>
+      <c r="F367" t="s">
+        <v>14</v>
+      </c>
+      <c r="G367" t="s">
+        <v>14</v>
+      </c>
+      <c r="H367" t="s">
+        <v>602</v>
+      </c>
+      <c r="I367">
+        <v>12</v>
+      </c>
+      <c r="J367">
+        <v>3032.94</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>11</v>
+      </c>
+      <c r="B368" t="s">
+        <v>187</v>
+      </c>
+      <c r="C368" t="s">
+        <v>188</v>
+      </c>
+      <c r="D368" t="s">
+        <v>14</v>
+      </c>
+      <c r="E368" t="s">
+        <v>189</v>
+      </c>
+      <c r="F368" t="s">
+        <v>14</v>
+      </c>
+      <c r="G368" t="s">
+        <v>14</v>
+      </c>
+      <c r="H368" t="s">
+        <v>603</v>
+      </c>
+      <c r="I368">
+        <v>22</v>
+      </c>
+      <c r="J368">
+        <v>3290.76</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>11</v>
+      </c>
+      <c r="B369" t="s">
+        <v>191</v>
+      </c>
+      <c r="C369" t="s">
+        <v>192</v>
+      </c>
+      <c r="D369" t="s">
+        <v>14</v>
+      </c>
+      <c r="E369" t="s">
+        <v>193</v>
+      </c>
+      <c r="F369" t="s">
+        <v>14</v>
+      </c>
+      <c r="G369" t="s">
+        <v>14</v>
+      </c>
+      <c r="H369" t="s">
+        <v>604</v>
+      </c>
+      <c r="I369">
+        <v>17</v>
+      </c>
+      <c r="J369">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>11</v>
+      </c>
+      <c r="B370" t="s">
+        <v>195</v>
+      </c>
+      <c r="C370" t="s">
+        <v>196</v>
+      </c>
+      <c r="D370" t="s">
+        <v>14</v>
+      </c>
+      <c r="E370" t="s">
+        <v>197</v>
+      </c>
+      <c r="F370" t="s">
+        <v>14</v>
+      </c>
+      <c r="G370" t="s">
+        <v>14</v>
+      </c>
+      <c r="H370" t="s">
+        <v>605</v>
+      </c>
+      <c r="I370">
+        <v>14</v>
+      </c>
+      <c r="J370">
+        <v>1827.25</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>11</v>
+      </c>
+      <c r="B371" t="s">
+        <v>199</v>
+      </c>
+      <c r="C371" t="s">
+        <v>200</v>
+      </c>
+      <c r="D371" t="s">
+        <v>14</v>
+      </c>
+      <c r="E371" t="s">
+        <v>201</v>
+      </c>
+      <c r="F371" t="s">
+        <v>14</v>
+      </c>
+      <c r="G371" t="s">
+        <v>14</v>
+      </c>
+      <c r="H371" t="s">
+        <v>606</v>
+      </c>
+      <c r="I371">
+        <v>15</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>11</v>
+      </c>
+      <c r="B372" t="s">
+        <v>203</v>
+      </c>
+      <c r="C372" t="s">
+        <v>204</v>
+      </c>
+      <c r="D372" t="s">
+        <v>14</v>
+      </c>
+      <c r="E372" t="s">
+        <v>205</v>
+      </c>
+      <c r="F372" t="s">
+        <v>14</v>
+      </c>
+      <c r="G372" t="s">
+        <v>14</v>
+      </c>
+      <c r="H372" t="s">
+        <v>607</v>
+      </c>
+      <c r="I372">
+        <v>2</v>
+      </c>
+      <c r="J372">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>11</v>
+      </c>
+      <c r="B373" t="s">
+        <v>207</v>
+      </c>
+      <c r="C373" t="s">
+        <v>208</v>
+      </c>
+      <c r="D373" t="s">
+        <v>14</v>
+      </c>
+      <c r="E373" t="s">
+        <v>209</v>
+      </c>
+      <c r="F373" t="s">
+        <v>14</v>
+      </c>
+      <c r="G373" t="s">
+        <v>14</v>
+      </c>
+      <c r="H373" t="s">
+        <v>608</v>
+      </c>
+      <c r="I373">
+        <v>12</v>
+      </c>
+      <c r="J373">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>11</v>
+      </c>
+      <c r="B374" t="s">
+        <v>211</v>
+      </c>
+      <c r="C374" t="s">
+        <v>212</v>
+      </c>
+      <c r="D374" t="s">
+        <v>14</v>
+      </c>
+      <c r="E374" t="s">
+        <v>213</v>
+      </c>
+      <c r="F374" t="s">
+        <v>14</v>
+      </c>
+      <c r="G374" t="s">
+        <v>14</v>
+      </c>
+      <c r="H374" t="s">
+        <v>609</v>
+      </c>
+      <c r="I374">
+        <v>17</v>
+      </c>
+      <c r="J374">
+        <v>3299.71</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>11</v>
+      </c>
+      <c r="B375" t="s">
+        <v>215</v>
+      </c>
+      <c r="C375" t="s">
+        <v>216</v>
+      </c>
+      <c r="D375" t="s">
+        <v>14</v>
+      </c>
+      <c r="E375" t="s">
+        <v>217</v>
+      </c>
+      <c r="F375" t="s">
+        <v>14</v>
+      </c>
+      <c r="G375" t="s">
+        <v>14</v>
+      </c>
+      <c r="H375" t="s">
+        <v>610</v>
+      </c>
+      <c r="I375">
+        <v>15</v>
+      </c>
+      <c r="J375">
+        <v>3171.76</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>11</v>
+      </c>
+      <c r="B376" t="s">
+        <v>223</v>
+      </c>
+      <c r="C376" t="s">
+        <v>224</v>
+      </c>
+      <c r="D376" t="s">
+        <v>14</v>
+      </c>
+      <c r="E376" t="s">
+        <v>225</v>
+      </c>
+      <c r="F376" t="s">
+        <v>14</v>
+      </c>
+      <c r="G376" t="s">
+        <v>14</v>
+      </c>
+      <c r="H376" t="s">
+        <v>611</v>
+      </c>
+      <c r="I376">
+        <v>14</v>
+      </c>
+      <c r="J376">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>11</v>
+      </c>
+      <c r="B377" t="s">
+        <v>227</v>
+      </c>
+      <c r="C377" t="s">
+        <v>228</v>
+      </c>
+      <c r="D377" t="s">
+        <v>14</v>
+      </c>
+      <c r="E377" t="s">
+        <v>229</v>
+      </c>
+      <c r="F377" t="s">
+        <v>14</v>
+      </c>
+      <c r="G377" t="s">
+        <v>14</v>
+      </c>
+      <c r="H377" t="s">
+        <v>612</v>
+      </c>
+      <c r="I377">
+        <v>8</v>
+      </c>
+      <c r="J377">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>11</v>
+      </c>
+      <c r="B378" t="s">
+        <v>231</v>
+      </c>
+      <c r="C378" t="s">
+        <v>232</v>
+      </c>
+      <c r="D378" t="s">
+        <v>14</v>
+      </c>
+      <c r="E378" t="s">
+        <v>233</v>
+      </c>
+      <c r="F378" t="s">
+        <v>14</v>
+      </c>
+      <c r="G378" t="s">
+        <v>14</v>
+      </c>
+      <c r="H378" t="s">
+        <v>613</v>
+      </c>
+      <c r="I378">
+        <v>11</v>
+      </c>
+      <c r="J378">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>11</v>
+      </c>
+      <c r="B379" t="s">
+        <v>235</v>
+      </c>
+      <c r="C379" t="s">
+        <v>236</v>
+      </c>
+      <c r="D379" t="s">
+        <v>14</v>
+      </c>
+      <c r="E379" t="s">
+        <v>237</v>
+      </c>
+      <c r="F379" t="s">
+        <v>14</v>
+      </c>
+      <c r="G379" t="s">
+        <v>14</v>
+      </c>
+      <c r="H379" t="s">
+        <v>614</v>
+      </c>
+      <c r="I379">
+        <v>14</v>
+      </c>
+      <c r="J379">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>11</v>
+      </c>
+      <c r="B380" t="s">
+        <v>239</v>
+      </c>
+      <c r="C380" t="s">
+        <v>240</v>
+      </c>
+      <c r="D380" t="s">
+        <v>14</v>
+      </c>
+      <c r="E380" t="s">
+        <v>241</v>
+      </c>
+      <c r="F380" t="s">
+        <v>14</v>
+      </c>
+      <c r="G380" t="s">
+        <v>14</v>
+      </c>
+      <c r="H380" t="s">
+        <v>615</v>
+      </c>
+      <c r="I380">
+        <v>14</v>
+      </c>
+      <c r="J380">
+        <v>3256.23</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>11</v>
+      </c>
+      <c r="B381" t="s">
+        <v>244</v>
+      </c>
+      <c r="C381" t="s">
+        <v>244</v>
+      </c>
+      <c r="D381" t="s">
+        <v>14</v>
+      </c>
+      <c r="E381" t="s">
+        <v>245</v>
+      </c>
+      <c r="F381" t="s">
+        <v>14</v>
+      </c>
+      <c r="G381" t="s">
+        <v>14</v>
+      </c>
+      <c r="H381" t="s">
+        <v>564</v>
+      </c>
+      <c r="I381">
+        <v>2</v>
+      </c>
+      <c r="J381">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>11</v>
+      </c>
+      <c r="B382" t="s">
+        <v>247</v>
+      </c>
+      <c r="C382" t="s">
+        <v>248</v>
+      </c>
+      <c r="D382" t="s">
+        <v>14</v>
+      </c>
+      <c r="E382" t="s">
+        <v>249</v>
+      </c>
+      <c r="F382" t="s">
+        <v>14</v>
+      </c>
+      <c r="G382" t="s">
+        <v>14</v>
+      </c>
+      <c r="H382" t="s">
+        <v>616</v>
+      </c>
+      <c r="I382">
+        <v>16</v>
+      </c>
+      <c r="J382">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>11</v>
+      </c>
+      <c r="B383" t="s">
+        <v>251</v>
+      </c>
+      <c r="C383" t="s">
+        <v>252</v>
+      </c>
+      <c r="D383" t="s">
+        <v>14</v>
+      </c>
+      <c r="E383" t="s">
+        <v>253</v>
+      </c>
+      <c r="F383" t="s">
+        <v>14</v>
+      </c>
+      <c r="G383" t="s">
+        <v>14</v>
+      </c>
+      <c r="H383" t="s">
+        <v>617</v>
+      </c>
+      <c r="I383">
+        <v>12</v>
+      </c>
+      <c r="J383">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>11</v>
+      </c>
+      <c r="B384" t="s">
+        <v>255</v>
+      </c>
+      <c r="C384" t="s">
+        <v>256</v>
+      </c>
+      <c r="D384" t="s">
+        <v>14</v>
+      </c>
+      <c r="E384" t="s">
+        <v>257</v>
+      </c>
+      <c r="F384" t="s">
+        <v>14</v>
+      </c>
+      <c r="G384" t="s">
+        <v>14</v>
+      </c>
+      <c r="H384" t="s">
+        <v>618</v>
+      </c>
+      <c r="I384">
+        <v>18</v>
+      </c>
+      <c r="J384">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>11</v>
+      </c>
+      <c r="B385" t="s">
+        <v>259</v>
+      </c>
+      <c r="C385" t="s">
+        <v>260</v>
+      </c>
+      <c r="D385" t="s">
+        <v>14</v>
+      </c>
+      <c r="E385" t="s">
+        <v>261</v>
+      </c>
+      <c r="F385" t="s">
+        <v>14</v>
+      </c>
+      <c r="G385" t="s">
+        <v>14</v>
+      </c>
+      <c r="H385" t="s">
+        <v>619</v>
+      </c>
+      <c r="I385">
+        <v>14</v>
+      </c>
+      <c r="J385">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>11</v>
+      </c>
+      <c r="B386" t="s">
+        <v>263</v>
+      </c>
+      <c r="C386" t="s">
+        <v>264</v>
+      </c>
+      <c r="D386" t="s">
+        <v>14</v>
+      </c>
+      <c r="E386" t="s">
+        <v>265</v>
+      </c>
+      <c r="F386" t="s">
+        <v>14</v>
+      </c>
+      <c r="G386" t="s">
+        <v>14</v>
+      </c>
+      <c r="H386" t="s">
+        <v>516</v>
+      </c>
+      <c r="I386">
+        <v>1</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>11</v>
+      </c>
+      <c r="B387" t="s">
+        <v>267</v>
+      </c>
+      <c r="C387" t="s">
+        <v>268</v>
+      </c>
+      <c r="D387" t="s">
+        <v>14</v>
+      </c>
+      <c r="E387" t="s">
+        <v>269</v>
+      </c>
+      <c r="F387" t="s">
+        <v>14</v>
+      </c>
+      <c r="G387" t="s">
+        <v>14</v>
+      </c>
+      <c r="H387" t="s">
+        <v>620</v>
+      </c>
+      <c r="I387">
+        <v>15</v>
+      </c>
+      <c r="J387">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>11</v>
+      </c>
+      <c r="B388" t="s">
+        <v>621</v>
+      </c>
+      <c r="C388" t="s">
+        <v>272</v>
+      </c>
+      <c r="D388" t="s">
+        <v>14</v>
+      </c>
+      <c r="E388" t="s">
+        <v>273</v>
+      </c>
+      <c r="F388" t="s">
+        <v>14</v>
+      </c>
+      <c r="G388" t="s">
+        <v>14</v>
+      </c>
+      <c r="H388" t="s">
+        <v>622</v>
+      </c>
+      <c r="I388">
+        <v>19</v>
+      </c>
+      <c r="J388">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>11</v>
+      </c>
+      <c r="B389" t="s">
+        <v>275</v>
+      </c>
+      <c r="C389" t="s">
+        <v>276</v>
+      </c>
+      <c r="D389" t="s">
+        <v>14</v>
+      </c>
+      <c r="E389" t="s">
+        <v>277</v>
+      </c>
+      <c r="F389" t="s">
+        <v>14</v>
+      </c>
+      <c r="G389" t="s">
+        <v>14</v>
+      </c>
+      <c r="H389" t="s">
+        <v>623</v>
+      </c>
+      <c r="I389">
+        <v>23</v>
+      </c>
+      <c r="J389">
+        <v>2298.37</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>11</v>
+      </c>
+      <c r="B390" t="s">
+        <v>279</v>
+      </c>
+      <c r="C390" t="s">
+        <v>280</v>
+      </c>
+      <c r="D390" t="s">
+        <v>14</v>
+      </c>
+      <c r="E390" t="s">
+        <v>281</v>
+      </c>
+      <c r="F390" t="s">
+        <v>14</v>
+      </c>
+      <c r="G390" t="s">
+        <v>14</v>
+      </c>
+      <c r="H390" t="s">
+        <v>624</v>
+      </c>
+      <c r="I390">
+        <v>15</v>
+      </c>
+      <c r="J390">
+        <v>3015.63</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>11</v>
+      </c>
+      <c r="B391" t="s">
+        <v>283</v>
+      </c>
+      <c r="C391" t="s">
+        <v>284</v>
+      </c>
+      <c r="D391" t="s">
+        <v>14</v>
+      </c>
+      <c r="E391" t="s">
+        <v>285</v>
+      </c>
+      <c r="F391" t="s">
+        <v>14</v>
+      </c>
+      <c r="G391" t="s">
+        <v>14</v>
+      </c>
+      <c r="H391" t="s">
+        <v>625</v>
+      </c>
+      <c r="I391">
+        <v>18</v>
+      </c>
+      <c r="J391">
+        <v>3173.5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>11</v>
+      </c>
+      <c r="B392" t="s">
+        <v>287</v>
+      </c>
+      <c r="C392" t="s">
+        <v>288</v>
+      </c>
+      <c r="D392" t="s">
+        <v>14</v>
+      </c>
+      <c r="E392" t="s">
+        <v>289</v>
+      </c>
+      <c r="F392" t="s">
+        <v>14</v>
+      </c>
+      <c r="G392" t="s">
+        <v>14</v>
+      </c>
+      <c r="H392" t="s">
+        <v>626</v>
+      </c>
+      <c r="I392">
+        <v>15</v>
+      </c>
+      <c r="J392">
+        <v>2604.88</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>11</v>
+      </c>
+      <c r="B393" t="s">
+        <v>291</v>
+      </c>
+      <c r="C393" t="s">
+        <v>292</v>
+      </c>
+      <c r="D393" t="s">
+        <v>14</v>
+      </c>
+      <c r="E393" t="s">
+        <v>293</v>
+      </c>
+      <c r="F393" t="s">
+        <v>14</v>
+      </c>
+      <c r="G393" t="s">
+        <v>14</v>
+      </c>
+      <c r="H393" t="s">
+        <v>627</v>
+      </c>
+      <c r="I393">
+        <v>13</v>
+      </c>
+      <c r="J393">
+        <v>3129.81</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>11</v>
+      </c>
+      <c r="B394" t="s">
+        <v>295</v>
+      </c>
+      <c r="C394" t="s">
+        <v>296</v>
+      </c>
+      <c r="D394" t="s">
+        <v>14</v>
+      </c>
+      <c r="E394" t="s">
+        <v>297</v>
+      </c>
+      <c r="F394" t="s">
+        <v>14</v>
+      </c>
+      <c r="G394" t="s">
+        <v>14</v>
+      </c>
+      <c r="H394" t="s">
+        <v>628</v>
+      </c>
+      <c r="I394">
+        <v>16</v>
+      </c>
+      <c r="J394">
+        <v>4715.88</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>11</v>
+      </c>
+      <c r="B395" t="s">
+        <v>299</v>
+      </c>
+      <c r="C395" t="s">
+        <v>300</v>
+      </c>
+      <c r="D395" t="s">
+        <v>14</v>
+      </c>
+      <c r="E395" t="s">
+        <v>301</v>
+      </c>
+      <c r="F395" t="s">
+        <v>14</v>
+      </c>
+      <c r="G395" t="s">
+        <v>14</v>
+      </c>
+      <c r="H395" t="s">
+        <v>629</v>
+      </c>
+      <c r="I395">
+        <v>13</v>
+      </c>
+      <c r="J395">
+        <v>2290.39</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>11</v>
+      </c>
+      <c r="B396" t="s">
+        <v>303</v>
+      </c>
+      <c r="C396" t="s">
+        <v>304</v>
+      </c>
+      <c r="D396" t="s">
+        <v>14</v>
+      </c>
+      <c r="E396" t="s">
+        <v>305</v>
+      </c>
+      <c r="F396" t="s">
+        <v>14</v>
+      </c>
+      <c r="G396" t="s">
+        <v>14</v>
+      </c>
+      <c r="H396" t="s">
+        <v>630</v>
+      </c>
+      <c r="I396">
+        <v>10</v>
+      </c>
+      <c r="J396">
+        <v>4645.13</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>11</v>
+      </c>
+      <c r="B397" t="s">
+        <v>307</v>
+      </c>
+      <c r="C397" t="s">
+        <v>308</v>
+      </c>
+      <c r="D397" t="s">
+        <v>14</v>
+      </c>
+      <c r="E397" t="s">
+        <v>309</v>
+      </c>
+      <c r="F397" t="s">
+        <v>14</v>
+      </c>
+      <c r="G397" t="s">
+        <v>14</v>
+      </c>
+      <c r="H397" t="s">
+        <v>631</v>
+      </c>
+      <c r="I397">
+        <v>14</v>
+      </c>
+      <c r="J397">
+        <v>3619.93</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>11</v>
+      </c>
+      <c r="B398" t="s">
+        <v>315</v>
+      </c>
+      <c r="C398" t="s">
+        <v>316</v>
+      </c>
+      <c r="D398" t="s">
+        <v>14</v>
+      </c>
+      <c r="E398" t="s">
+        <v>317</v>
+      </c>
+      <c r="F398" t="s">
+        <v>14</v>
+      </c>
+      <c r="G398" t="s">
+        <v>14</v>
+      </c>
+      <c r="H398" t="s">
+        <v>632</v>
+      </c>
+      <c r="I398">
+        <v>15</v>
+      </c>
+      <c r="J398">
+        <v>2673.26</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>11</v>
+      </c>
+      <c r="B399" t="s">
+        <v>319</v>
+      </c>
+      <c r="C399" t="s">
+        <v>320</v>
+      </c>
+      <c r="D399" t="s">
+        <v>14</v>
+      </c>
+      <c r="E399" t="s">
+        <v>321</v>
+      </c>
+      <c r="F399" t="s">
+        <v>14</v>
+      </c>
+      <c r="G399" t="s">
+        <v>14</v>
+      </c>
+      <c r="H399" t="s">
+        <v>633</v>
+      </c>
+      <c r="I399">
+        <v>11</v>
+      </c>
+      <c r="J399">
+        <v>3362.07</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>11</v>
+      </c>
+      <c r="B400" t="s">
+        <v>323</v>
+      </c>
+      <c r="C400" t="s">
+        <v>324</v>
+      </c>
+      <c r="D400" t="s">
+        <v>14</v>
+      </c>
+      <c r="E400" t="s">
+        <v>325</v>
+      </c>
+      <c r="F400" t="s">
+        <v>14</v>
+      </c>
+      <c r="G400" t="s">
+        <v>14</v>
+      </c>
+      <c r="H400" t="s">
+        <v>634</v>
+      </c>
+      <c r="I400">
+        <v>11</v>
+      </c>
+      <c r="J400">
+        <v>3313.45</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>11</v>
+      </c>
+      <c r="B401" t="s">
+        <v>327</v>
+      </c>
+      <c r="C401" t="s">
+        <v>328</v>
+      </c>
+      <c r="D401" t="s">
+        <v>14</v>
+      </c>
+      <c r="E401" t="s">
+        <v>329</v>
+      </c>
+      <c r="F401" t="s">
+        <v>14</v>
+      </c>
+      <c r="G401" t="s">
+        <v>14</v>
+      </c>
+      <c r="H401" t="s">
+        <v>623</v>
+      </c>
+      <c r="I401">
+        <v>14</v>
+      </c>
+      <c r="J401">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>11</v>
+      </c>
+      <c r="B402" t="s">
+        <v>331</v>
+      </c>
+      <c r="C402" t="s">
+        <v>332</v>
+      </c>
+      <c r="D402" t="s">
+        <v>14</v>
+      </c>
+      <c r="E402" t="s">
+        <v>333</v>
+      </c>
+      <c r="F402" t="s">
+        <v>14</v>
+      </c>
+      <c r="G402" t="s">
+        <v>14</v>
+      </c>
+      <c r="H402" t="s">
+        <v>635</v>
+      </c>
+      <c r="I402">
+        <v>4</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>11</v>
+      </c>
+      <c r="B403" t="s">
+        <v>335</v>
+      </c>
+      <c r="C403" t="s">
+        <v>336</v>
+      </c>
+      <c r="D403" t="s">
+        <v>14</v>
+      </c>
+      <c r="E403" t="s">
+        <v>337</v>
+      </c>
+      <c r="F403" t="s">
+        <v>14</v>
+      </c>
+      <c r="G403" t="s">
+        <v>14</v>
+      </c>
+      <c r="H403" t="s">
+        <v>636</v>
+      </c>
+      <c r="I403">
+        <v>16</v>
+      </c>
+      <c r="J403">
+        <v>3412.4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>11</v>
+      </c>
+      <c r="B404" t="s">
+        <v>339</v>
+      </c>
+      <c r="C404" t="s">
+        <v>340</v>
+      </c>
+      <c r="D404" t="s">
+        <v>14</v>
+      </c>
+      <c r="E404" t="s">
+        <v>341</v>
+      </c>
+      <c r="F404" t="s">
+        <v>14</v>
+      </c>
+      <c r="G404" t="s">
+        <v>14</v>
+      </c>
+      <c r="H404" t="s">
+        <v>637</v>
+      </c>
+      <c r="I404">
+        <v>10</v>
+      </c>
+      <c r="J404">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>11</v>
+      </c>
+      <c r="B405" t="s">
+        <v>343</v>
+      </c>
+      <c r="C405" t="s">
+        <v>344</v>
+      </c>
+      <c r="D405" t="s">
+        <v>14</v>
+      </c>
+      <c r="E405" t="s">
+        <v>345</v>
+      </c>
+      <c r="F405" t="s">
+        <v>14</v>
+      </c>
+      <c r="G405" t="s">
+        <v>14</v>
+      </c>
+      <c r="H405" t="s">
+        <v>638</v>
+      </c>
+      <c r="I405">
+        <v>16</v>
+      </c>
+      <c r="J405">
+        <v>3142.97</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>11</v>
+      </c>
+      <c r="B406" t="s">
+        <v>347</v>
+      </c>
+      <c r="C406" t="s">
+        <v>348</v>
+      </c>
+      <c r="D406" t="s">
+        <v>14</v>
+      </c>
+      <c r="E406" t="s">
+        <v>349</v>
+      </c>
+      <c r="F406" t="s">
+        <v>14</v>
+      </c>
+      <c r="G406" t="s">
+        <v>14</v>
+      </c>
+      <c r="H406" t="s">
+        <v>639</v>
+      </c>
+      <c r="I406">
+        <v>6</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>11</v>
+      </c>
+      <c r="B407" t="s">
+        <v>355</v>
+      </c>
+      <c r="C407" t="s">
+        <v>356</v>
+      </c>
+      <c r="D407" t="s">
+        <v>14</v>
+      </c>
+      <c r="E407" t="s">
+        <v>357</v>
+      </c>
+      <c r="F407" t="s">
+        <v>14</v>
+      </c>
+      <c r="G407" t="s">
+        <v>14</v>
+      </c>
+      <c r="H407" t="s">
+        <v>640</v>
+      </c>
+      <c r="I407">
+        <v>7</v>
+      </c>
+      <c r="J407">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>11</v>
+      </c>
+      <c r="B408" t="s">
+        <v>359</v>
+      </c>
+      <c r="C408" t="s">
+        <v>360</v>
+      </c>
+      <c r="D408" t="s">
+        <v>14</v>
+      </c>
+      <c r="E408" t="s">
+        <v>361</v>
+      </c>
+      <c r="F408" t="s">
+        <v>14</v>
+      </c>
+      <c r="G408" t="s">
+        <v>14</v>
+      </c>
+      <c r="H408" t="s">
+        <v>641</v>
+      </c>
+      <c r="I408">
+        <v>20</v>
+      </c>
+      <c r="J408">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>11</v>
+      </c>
+      <c r="B409" t="s">
+        <v>363</v>
+      </c>
+      <c r="C409" t="s">
+        <v>364</v>
+      </c>
+      <c r="D409" t="s">
+        <v>14</v>
+      </c>
+      <c r="E409" t="s">
+        <v>365</v>
+      </c>
+      <c r="F409" t="s">
+        <v>14</v>
+      </c>
+      <c r="G409" t="s">
+        <v>14</v>
+      </c>
+      <c r="H409" t="s">
+        <v>642</v>
+      </c>
+      <c r="I409">
+        <v>16</v>
+      </c>
+      <c r="J409">
+        <v>2344.54</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>11</v>
+      </c>
+      <c r="B410" t="s">
+        <v>367</v>
+      </c>
+      <c r="C410" t="s">
+        <v>368</v>
+      </c>
+      <c r="D410" t="s">
+        <v>14</v>
+      </c>
+      <c r="E410" t="s">
+        <v>369</v>
+      </c>
+      <c r="F410" t="s">
+        <v>14</v>
+      </c>
+      <c r="G410" t="s">
+        <v>14</v>
+      </c>
+      <c r="H410" t="s">
+        <v>643</v>
+      </c>
+      <c r="I410">
+        <v>15</v>
+      </c>
+      <c r="J410">
+        <v>2634.48</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>11</v>
+      </c>
+      <c r="B411" t="s">
+        <v>644</v>
+      </c>
+      <c r="C411" t="s">
+        <v>372</v>
+      </c>
+      <c r="D411" t="s">
+        <v>14</v>
+      </c>
+      <c r="E411" t="s">
+        <v>373</v>
+      </c>
+      <c r="F411" t="s">
+        <v>14</v>
+      </c>
+      <c r="G411" t="s">
+        <v>14</v>
+      </c>
+      <c r="H411" t="s">
+        <v>645</v>
+      </c>
+      <c r="I411">
+        <v>5</v>
+      </c>
+      <c r="J411">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>11</v>
+      </c>
+      <c r="B412" t="s">
+        <v>219</v>
+      </c>
+      <c r="C412" t="s">
+        <v>376</v>
+      </c>
+      <c r="D412" t="s">
+        <v>14</v>
+      </c>
+      <c r="E412" t="s">
+        <v>377</v>
+      </c>
+      <c r="F412" t="s">
+        <v>14</v>
+      </c>
+      <c r="G412" t="s">
+        <v>14</v>
+      </c>
+      <c r="H412" t="s">
+        <v>646</v>
+      </c>
+      <c r="I412">
+        <v>13</v>
+      </c>
+      <c r="J412">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>11</v>
+      </c>
+      <c r="B413" t="s">
+        <v>647</v>
+      </c>
+      <c r="C413" t="s">
+        <v>648</v>
+      </c>
+      <c r="D413" t="s">
+        <v>14</v>
+      </c>
+      <c r="E413" t="s">
+        <v>649</v>
+      </c>
+      <c r="F413" t="s">
+        <v>14</v>
+      </c>
+      <c r="G413" t="s">
+        <v>14</v>
+      </c>
+      <c r="H413" t="s">
+        <v>611</v>
+      </c>
+      <c r="I413">
+        <v>13</v>
+      </c>
+      <c r="J413">
+        <v>3105.94</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>11</v>
+      </c>
+      <c r="B414" t="s">
+        <v>379</v>
+      </c>
+      <c r="C414" t="s">
+        <v>380</v>
+      </c>
+      <c r="D414" t="s">
+        <v>14</v>
+      </c>
+      <c r="E414" t="s">
+        <v>381</v>
+      </c>
+      <c r="F414" t="s">
+        <v>14</v>
+      </c>
+      <c r="G414" t="s">
+        <v>14</v>
+      </c>
+      <c r="H414" t="s">
+        <v>650</v>
+      </c>
+      <c r="I414">
+        <v>21</v>
+      </c>
+      <c r="J414">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>11</v>
+      </c>
+      <c r="B415" t="s">
+        <v>383</v>
+      </c>
+      <c r="C415" t="s">
+        <v>384</v>
+      </c>
+      <c r="D415" t="s">
+        <v>14</v>
+      </c>
+      <c r="E415" t="s">
+        <v>385</v>
+      </c>
+      <c r="F415" t="s">
+        <v>14</v>
+      </c>
+      <c r="G415" t="s">
+        <v>14</v>
+      </c>
+      <c r="H415" t="s">
+        <v>651</v>
+      </c>
+      <c r="I415">
+        <v>14</v>
+      </c>
+      <c r="J415">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>11</v>
+      </c>
+      <c r="B416" t="s">
+        <v>387</v>
+      </c>
+      <c r="C416" t="s">
+        <v>388</v>
+      </c>
+      <c r="D416" t="s">
+        <v>14</v>
+      </c>
+      <c r="E416" t="s">
+        <v>389</v>
+      </c>
+      <c r="F416" t="s">
+        <v>14</v>
+      </c>
+      <c r="G416" t="s">
+        <v>14</v>
+      </c>
+      <c r="H416" t="s">
+        <v>652</v>
+      </c>
+      <c r="I416">
+        <v>16</v>
+      </c>
+      <c r="J416">
+        <v>2885.75</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>11</v>
+      </c>
+      <c r="B417" t="s">
+        <v>391</v>
+      </c>
+      <c r="C417" t="s">
+        <v>392</v>
+      </c>
+      <c r="D417" t="s">
+        <v>14</v>
+      </c>
+      <c r="E417" t="s">
+        <v>393</v>
+      </c>
+      <c r="F417" t="s">
+        <v>14</v>
+      </c>
+      <c r="G417" t="s">
+        <v>14</v>
+      </c>
+      <c r="H417" t="s">
+        <v>653</v>
+      </c>
+      <c r="I417">
+        <v>13</v>
+      </c>
+      <c r="J417">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>11</v>
+      </c>
+      <c r="B418" t="s">
+        <v>395</v>
+      </c>
+      <c r="C418" t="s">
+        <v>396</v>
+      </c>
+      <c r="D418" t="s">
+        <v>14</v>
+      </c>
+      <c r="E418" t="s">
+        <v>397</v>
+      </c>
+      <c r="F418" t="s">
+        <v>14</v>
+      </c>
+      <c r="G418" t="s">
+        <v>14</v>
+      </c>
+      <c r="H418" t="s">
+        <v>654</v>
+      </c>
+      <c r="I418">
+        <v>24</v>
+      </c>
+      <c r="J418">
+        <v>3122.79</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>11</v>
+      </c>
+      <c r="B419" t="s">
+        <v>399</v>
+      </c>
+      <c r="C419" t="s">
+        <v>400</v>
+      </c>
+      <c r="D419" t="s">
+        <v>14</v>
+      </c>
+      <c r="E419" t="s">
+        <v>401</v>
+      </c>
+      <c r="F419" t="s">
+        <v>14</v>
+      </c>
+      <c r="G419" t="s">
+        <v>14</v>
+      </c>
+      <c r="H419" t="s">
+        <v>655</v>
+      </c>
+      <c r="I419">
+        <v>14</v>
+      </c>
+      <c r="J419">
+        <v>3143.64</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>11</v>
+      </c>
+      <c r="B420" t="s">
+        <v>403</v>
+      </c>
+      <c r="C420" t="s">
+        <v>404</v>
+      </c>
+      <c r="D420" t="s">
+        <v>14</v>
+      </c>
+      <c r="E420" t="s">
+        <v>405</v>
+      </c>
+      <c r="F420" t="s">
+        <v>14</v>
+      </c>
+      <c r="G420" t="s">
+        <v>14</v>
+      </c>
+      <c r="H420" t="s">
+        <v>656</v>
+      </c>
+      <c r="I420">
+        <v>14</v>
+      </c>
+      <c r="J420">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>11</v>
+      </c>
+      <c r="B421" t="s">
+        <v>408</v>
+      </c>
+      <c r="C421" t="s">
+        <v>408</v>
+      </c>
+      <c r="D421" t="s">
+        <v>14</v>
+      </c>
+      <c r="E421" t="s">
+        <v>409</v>
+      </c>
+      <c r="F421" t="s">
+        <v>14</v>
+      </c>
+      <c r="G421" t="s">
+        <v>14</v>
+      </c>
+      <c r="H421" t="s">
+        <v>657</v>
+      </c>
+      <c r="I421">
+        <v>9</v>
+      </c>
+      <c r="J421">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>11</v>
+      </c>
+      <c r="B422" t="s">
+        <v>411</v>
+      </c>
+      <c r="C422" t="s">
+        <v>412</v>
+      </c>
+      <c r="D422" t="s">
+        <v>14</v>
+      </c>
+      <c r="E422" t="s">
+        <v>413</v>
+      </c>
+      <c r="F422" t="s">
+        <v>14</v>
+      </c>
+      <c r="G422" t="s">
+        <v>14</v>
+      </c>
+      <c r="H422" t="s">
+        <v>658</v>
+      </c>
+      <c r="I422">
+        <v>14</v>
+      </c>
+      <c r="J422">
+        <v>1446.38</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>11</v>
+      </c>
+      <c r="B423" t="s">
+        <v>415</v>
+      </c>
+      <c r="C423" t="s">
+        <v>416</v>
+      </c>
+      <c r="D423" t="s">
+        <v>14</v>
+      </c>
+      <c r="E423" t="s">
+        <v>417</v>
+      </c>
+      <c r="F423" t="s">
+        <v>14</v>
+      </c>
+      <c r="G423" t="s">
+        <v>14</v>
+      </c>
+      <c r="H423" t="s">
+        <v>659</v>
+      </c>
+      <c r="I423">
+        <v>14</v>
+      </c>
+      <c r="J423">
+        <v>2472.94</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>11</v>
+      </c>
+      <c r="B424" t="s">
+        <v>419</v>
+      </c>
+      <c r="C424" t="s">
+        <v>420</v>
+      </c>
+      <c r="D424" t="s">
+        <v>14</v>
+      </c>
+      <c r="E424" t="s">
+        <v>421</v>
+      </c>
+      <c r="F424" t="s">
+        <v>14</v>
+      </c>
+      <c r="G424" t="s">
+        <v>14</v>
+      </c>
+      <c r="H424" t="s">
+        <v>660</v>
+      </c>
+      <c r="I424">
+        <v>16</v>
+      </c>
+      <c r="J424">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>11</v>
+      </c>
+      <c r="B425" t="s">
+        <v>423</v>
+      </c>
+      <c r="C425" t="s">
+        <v>424</v>
+      </c>
+      <c r="D425" t="s">
+        <v>14</v>
+      </c>
+      <c r="E425" t="s">
+        <v>425</v>
+      </c>
+      <c r="F425" t="s">
+        <v>14</v>
+      </c>
+      <c r="G425" t="s">
+        <v>14</v>
+      </c>
+      <c r="H425" t="s">
+        <v>661</v>
+      </c>
+      <c r="I425">
+        <v>19</v>
+      </c>
+      <c r="J425">
+        <v>3140.27</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>11</v>
+      </c>
+      <c r="B426" t="s">
+        <v>427</v>
+      </c>
+      <c r="C426" t="s">
+        <v>428</v>
+      </c>
+      <c r="D426" t="s">
+        <v>14</v>
+      </c>
+      <c r="E426" t="s">
+        <v>429</v>
+      </c>
+      <c r="F426" t="s">
+        <v>14</v>
+      </c>
+      <c r="G426" t="s">
+        <v>14</v>
+      </c>
+      <c r="H426" t="s">
+        <v>662</v>
+      </c>
+      <c r="I426">
+        <v>14</v>
+      </c>
+      <c r="J426">
+        <v>4094.94</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>11</v>
+      </c>
+      <c r="B427" t="s">
+        <v>431</v>
+      </c>
+      <c r="C427" t="s">
+        <v>432</v>
+      </c>
+      <c r="D427" t="s">
+        <v>14</v>
+      </c>
+      <c r="E427" t="s">
+        <v>433</v>
+      </c>
+      <c r="F427" t="s">
+        <v>14</v>
+      </c>
+      <c r="G427" t="s">
+        <v>14</v>
+      </c>
+      <c r="H427" t="s">
+        <v>663</v>
+      </c>
+      <c r="I427">
+        <v>20</v>
+      </c>
+      <c r="J427">
+        <v>2374.09</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>11</v>
+      </c>
+      <c r="B428" t="s">
+        <v>435</v>
+      </c>
+      <c r="C428" t="s">
+        <v>436</v>
+      </c>
+      <c r="D428" t="s">
+        <v>14</v>
+      </c>
+      <c r="E428" t="s">
+        <v>437</v>
+      </c>
+      <c r="F428" t="s">
+        <v>14</v>
+      </c>
+      <c r="G428" t="s">
+        <v>14</v>
+      </c>
+      <c r="H428" t="s">
+        <v>664</v>
+      </c>
+      <c r="I428">
+        <v>10</v>
+      </c>
+      <c r="J428">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>11</v>
+      </c>
+      <c r="B429" t="s">
+        <v>439</v>
+      </c>
+      <c r="C429" t="s">
+        <v>440</v>
+      </c>
+      <c r="D429" t="s">
+        <v>14</v>
+      </c>
+      <c r="E429" t="s">
+        <v>441</v>
+      </c>
+      <c r="F429" t="s">
+        <v>14</v>
+      </c>
+      <c r="G429" t="s">
+        <v>14</v>
+      </c>
+      <c r="H429" t="s">
+        <v>665</v>
+      </c>
+      <c r="I429">
+        <v>26</v>
+      </c>
+      <c r="J429">
+        <v>3347.6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>11</v>
+      </c>
+      <c r="B430" t="s">
+        <v>443</v>
+      </c>
+      <c r="C430" t="s">
+        <v>444</v>
+      </c>
+      <c r="D430" t="s">
+        <v>14</v>
+      </c>
+      <c r="E430" t="s">
+        <v>445</v>
+      </c>
+      <c r="F430" t="s">
+        <v>14</v>
+      </c>
+      <c r="G430" t="s">
+        <v>14</v>
+      </c>
+      <c r="H430" t="s">
+        <v>666</v>
+      </c>
+      <c r="I430">
+        <v>14</v>
+      </c>
+      <c r="J430">
+        <v>3396.79</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>11</v>
+      </c>
+      <c r="B431" t="s">
+        <v>447</v>
+      </c>
+      <c r="C431" t="s">
+        <v>448</v>
+      </c>
+      <c r="D431" t="s">
+        <v>14</v>
+      </c>
+      <c r="E431" t="s">
+        <v>449</v>
+      </c>
+      <c r="F431" t="s">
+        <v>14</v>
+      </c>
+      <c r="G431" t="s">
+        <v>14</v>
+      </c>
+      <c r="H431" t="s">
+        <v>667</v>
+      </c>
+      <c r="I431">
+        <v>11</v>
+      </c>
+      <c r="J431">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>11</v>
+      </c>
+      <c r="B432" t="s">
+        <v>451</v>
+      </c>
+      <c r="C432" t="s">
+        <v>452</v>
+      </c>
+      <c r="D432" t="s">
+        <v>14</v>
+      </c>
+      <c r="E432" t="s">
+        <v>453</v>
+      </c>
+      <c r="F432" t="s">
+        <v>14</v>
+      </c>
+      <c r="G432" t="s">
+        <v>14</v>
+      </c>
+      <c r="H432" t="s">
+        <v>668</v>
+      </c>
+      <c r="I432">
+        <v>25</v>
+      </c>
+      <c r="J432">
+        <v>3351.75</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>11</v>
+      </c>
+      <c r="B433" t="s">
+        <v>455</v>
+      </c>
+      <c r="C433" t="s">
+        <v>456</v>
+      </c>
+      <c r="D433" t="s">
+        <v>14</v>
+      </c>
+      <c r="E433" t="s">
+        <v>457</v>
+      </c>
+      <c r="F433" t="s">
+        <v>14</v>
+      </c>
+      <c r="G433" t="s">
+        <v>14</v>
+      </c>
+      <c r="H433" t="s">
+        <v>669</v>
+      </c>
+      <c r="I433">
+        <v>3</v>
+      </c>
+      <c r="J433">
+        <v>441.19</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K215">
     <sortCondition ref="A1:A215"/>
   </sortState>
-  <conditionalFormatting sqref="C325:C1048576 C1:C215">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  <conditionalFormatting sqref="C1:C324 C434:C1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C216:C324">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C434:C1048576 C1:C215">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C325:C433">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C325:C433">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/distances_26-11 al 03-12.xlsx
+++ b/distances_26-11 al 03-12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\consumo-bca-dashboard-limpio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B1464C-3D05-49D2-8501-B9FD19E6300D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B654BC3F-AB0D-4763-BBC2-14929B74804B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1464,19 +1464,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7318,7 +7337,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{46CEBC28-C5EA-44C1-94DB-94D1DBB25994}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{46CEBC28-C5EA-44C1-94DB-94D1DBB25994}" name="TablaDinámica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B118" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -8165,7 +8184,7 @@
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>10873.24</v>
       </c>
     </row>
@@ -8173,7 +8192,7 @@
       <c r="A5" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>8128.1999999999989</v>
       </c>
     </row>
@@ -8181,7 +8200,7 @@
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>13258</v>
       </c>
     </row>
@@ -8189,7 +8208,7 @@
       <c r="A7" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>8832</v>
       </c>
     </row>
@@ -8197,7 +8216,7 @@
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>0</v>
       </c>
     </row>
@@ -8205,7 +8224,7 @@
       <c r="A9" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>12525</v>
       </c>
     </row>
@@ -8213,7 +8232,7 @@
       <c r="A10" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>7821</v>
       </c>
     </row>
@@ -8221,7 +8240,7 @@
       <c r="A11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>8001</v>
       </c>
     </row>
@@ -8229,7 +8248,7 @@
       <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>13566</v>
       </c>
     </row>
@@ -8237,7 +8256,7 @@
       <c r="A13" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>12187.18</v>
       </c>
     </row>
@@ -8245,7 +8264,7 @@
       <c r="A14" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>3883</v>
       </c>
     </row>
@@ -8253,7 +8272,7 @@
       <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>12365</v>
       </c>
     </row>
@@ -8261,7 +8280,7 @@
       <c r="A16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>13365</v>
       </c>
     </row>
@@ -8269,7 +8288,7 @@
       <c r="A17" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>11133.27</v>
       </c>
     </row>
@@ -8277,7 +8296,7 @@
       <c r="A18" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>5682</v>
       </c>
     </row>
@@ -8285,7 +8304,7 @@
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>858</v>
       </c>
     </row>
@@ -8293,7 +8312,7 @@
       <c r="A20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>14368</v>
       </c>
     </row>
@@ -8301,7 +8320,7 @@
       <c r="A21" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>9542</v>
       </c>
     </row>
@@ -8309,7 +8328,7 @@
       <c r="A22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>11995.010000000002</v>
       </c>
     </row>
@@ -8317,7 +8336,7 @@
       <c r="A23" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>9677.119999999999</v>
       </c>
     </row>
@@ -8325,7 +8344,7 @@
       <c r="A24" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>3382</v>
       </c>
     </row>
@@ -8333,7 +8352,7 @@
       <c r="A25" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>8804.7800000000007</v>
       </c>
     </row>
@@ -8341,7 +8360,7 @@
       <c r="A26" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>10651.869999999999</v>
       </c>
     </row>
@@ -8349,7 +8368,7 @@
       <c r="A27" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>10657</v>
       </c>
     </row>
@@ -8357,7 +8376,7 @@
       <c r="A28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>5156</v>
       </c>
     </row>
@@ -8365,7 +8384,7 @@
       <c r="A29" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>14651</v>
       </c>
     </row>
@@ -8373,7 +8392,7 @@
       <c r="A30" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>8730</v>
       </c>
     </row>
@@ -8381,7 +8400,7 @@
       <c r="A31" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>13076.64</v>
       </c>
     </row>
@@ -8389,7 +8408,7 @@
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>4433</v>
       </c>
     </row>
@@ -8397,7 +8416,7 @@
       <c r="A33" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>11339</v>
       </c>
     </row>
@@ -8405,7 +8424,7 @@
       <c r="A34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>10844</v>
       </c>
     </row>
@@ -8413,7 +8432,7 @@
       <c r="A35" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>6211.88</v>
       </c>
     </row>
@@ -8421,7 +8440,7 @@
       <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>7849</v>
       </c>
     </row>
@@ -8429,7 +8448,7 @@
       <c r="A37" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>14887.23</v>
       </c>
     </row>
@@ -8437,7 +8456,7 @@
       <c r="A38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>11347</v>
       </c>
     </row>
@@ -8445,7 +8464,7 @@
       <c r="A39" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>13579</v>
       </c>
     </row>
@@ -8453,7 +8472,7 @@
       <c r="A40" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>6142</v>
       </c>
     </row>
@@ -8461,7 +8480,7 @@
       <c r="A41" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>18793.77</v>
       </c>
     </row>
@@ -8469,7 +8488,7 @@
       <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>13325</v>
       </c>
     </row>
@@ -8477,7 +8496,7 @@
       <c r="A43" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>17366</v>
       </c>
     </row>
@@ -8485,7 +8504,7 @@
       <c r="A44" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>13551.23</v>
       </c>
     </row>
@@ -8493,7 +8512,7 @@
       <c r="A45" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>13214</v>
       </c>
     </row>
@@ -8501,7 +8520,7 @@
       <c r="A46" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>12927</v>
       </c>
     </row>
@@ -8509,7 +8528,7 @@
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>16777.399999999998</v>
       </c>
     </row>
@@ -8517,7 +8536,7 @@
       <c r="A48" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>15442</v>
       </c>
     </row>
@@ -8525,7 +8544,7 @@
       <c r="A49" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>13968</v>
       </c>
     </row>
@@ -8533,7 +8552,7 @@
       <c r="A50" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>10508.34</v>
       </c>
     </row>
@@ -8541,7 +8560,7 @@
       <c r="A51" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>4784</v>
       </c>
     </row>
@@ -8549,7 +8568,7 @@
       <c r="A52" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>13154</v>
       </c>
     </row>
@@ -8557,7 +8576,7 @@
       <c r="A53" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53">
         <v>6970.45</v>
       </c>
     </row>
@@ -8565,7 +8584,7 @@
       <c r="A54" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54">
         <v>11766.41</v>
       </c>
     </row>
@@ -8573,7 +8592,7 @@
       <c r="A55" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55">
         <v>11790.76</v>
       </c>
     </row>
@@ -8581,7 +8600,7 @@
       <c r="A56" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56">
         <v>9629.77</v>
       </c>
     </row>
@@ -8589,7 +8608,7 @@
       <c r="A57" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57">
         <v>17471.990000000002</v>
       </c>
     </row>
@@ -8597,7 +8616,7 @@
       <c r="A58" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58">
         <v>14835.230000000001</v>
       </c>
     </row>
@@ -8605,7 +8624,7 @@
       <c r="A59" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59">
         <v>9780</v>
       </c>
     </row>
@@ -8613,7 +8632,7 @@
       <c r="A60" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60">
         <v>13777</v>
       </c>
     </row>
@@ -8621,7 +8640,7 @@
       <c r="A61" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61">
         <v>14123</v>
       </c>
     </row>
@@ -8629,7 +8648,7 @@
       <c r="A62" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62">
         <v>12871</v>
       </c>
     </row>
@@ -8637,7 +8656,7 @@
       <c r="A63" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63">
         <v>1019135.72</v>
       </c>
     </row>
@@ -8645,7 +8664,7 @@
       <c r="A64" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64">
         <v>9524</v>
       </c>
     </row>
@@ -8653,7 +8672,7 @@
       <c r="A65" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65">
         <v>8540</v>
       </c>
     </row>
@@ -8661,7 +8680,7 @@
       <c r="A66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66">
         <v>11188</v>
       </c>
     </row>
@@ -8669,7 +8688,7 @@
       <c r="A67" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67">
         <v>7575</v>
       </c>
     </row>
@@ -8677,7 +8696,7 @@
       <c r="A68" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68">
         <v>11842</v>
       </c>
     </row>
@@ -8685,7 +8704,7 @@
       <c r="A69" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69">
         <v>14115</v>
       </c>
     </row>
@@ -8693,7 +8712,7 @@
       <c r="A70" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70">
         <v>11099</v>
       </c>
     </row>
@@ -8701,7 +8720,7 @@
       <c r="A71" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71">
         <v>2909</v>
       </c>
     </row>
@@ -8709,7 +8728,7 @@
       <c r="A72" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72">
         <v>13368.53</v>
       </c>
     </row>
@@ -8717,7 +8736,7 @@
       <c r="A73" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73">
         <v>13630.580000000002</v>
       </c>
     </row>
@@ -8725,7 +8744,7 @@
       <c r="A74" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74">
         <v>10625.63</v>
       </c>
     </row>
@@ -8733,7 +8752,7 @@
       <c r="A75" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75">
         <v>11497.86</v>
       </c>
     </row>
@@ -8741,7 +8760,7 @@
       <c r="A76" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76">
         <v>16265.35</v>
       </c>
     </row>
@@ -8749,7 +8768,7 @@
       <c r="A77" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77">
         <v>13631.21</v>
       </c>
     </row>
@@ -8757,7 +8776,7 @@
       <c r="A78" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78">
         <v>12355.77</v>
       </c>
     </row>
@@ -8765,7 +8784,7 @@
       <c r="A79" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79">
         <v>11814.820000000002</v>
       </c>
     </row>
@@ -8773,7 +8792,7 @@
       <c r="A80" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80">
         <v>14589.96</v>
       </c>
     </row>
@@ -8781,7 +8800,7 @@
       <c r="A81" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81">
         <v>14242.62</v>
       </c>
     </row>
@@ -8789,7 +8808,7 @@
       <c r="A82" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82">
         <v>8576.9499999999989</v>
       </c>
     </row>
@@ -8797,7 +8816,7 @@
       <c r="A83" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83">
         <v>0</v>
       </c>
     </row>
@@ -8805,7 +8824,7 @@
       <c r="A84" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84">
         <v>5679.52</v>
       </c>
     </row>
@@ -8813,7 +8832,7 @@
       <c r="A85" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85">
         <v>8457.94</v>
       </c>
     </row>
@@ -8821,7 +8840,7 @@
       <c r="A86" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86">
         <v>8573.25</v>
       </c>
     </row>
@@ -8829,7 +8848,7 @@
       <c r="A87" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87">
         <v>12710.71</v>
       </c>
     </row>
@@ -8837,7 +8856,7 @@
       <c r="A88" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88">
         <v>0</v>
       </c>
     </row>
@@ -8845,7 +8864,7 @@
       <c r="A89" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89">
         <v>0.38</v>
       </c>
     </row>
@@ -8853,7 +8872,7 @@
       <c r="A90" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90">
         <v>0</v>
       </c>
     </row>
@@ -8861,7 +8880,7 @@
       <c r="A91" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91">
         <v>6231.54</v>
       </c>
     </row>
@@ -8869,7 +8888,7 @@
       <c r="A92" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92">
         <v>5878</v>
       </c>
     </row>
@@ -8877,7 +8896,7 @@
       <c r="A93" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93">
         <v>0</v>
       </c>
     </row>
@@ -8885,7 +8904,7 @@
       <c r="A94" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94">
         <v>13662.5</v>
       </c>
     </row>
@@ -8893,7 +8912,7 @@
       <c r="A95" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95">
         <v>5723.77</v>
       </c>
     </row>
@@ -8901,7 +8920,7 @@
       <c r="A96" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96">
         <v>13152.93</v>
       </c>
     </row>
@@ -8909,7 +8928,7 @@
       <c r="A97" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97">
         <v>7848.75</v>
       </c>
     </row>
@@ -8917,7 +8936,7 @@
       <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98">
         <v>3646.57</v>
       </c>
     </row>
@@ -8925,7 +8944,7 @@
       <c r="A99" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99">
         <v>9256.15</v>
       </c>
     </row>
@@ -8933,7 +8952,7 @@
       <c r="A100" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100">
         <v>9163.3900000000012</v>
       </c>
     </row>
@@ -8941,7 +8960,7 @@
       <c r="A101" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101">
         <v>2113.75</v>
       </c>
     </row>
@@ -8949,7 +8968,7 @@
       <c r="A102" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102">
         <v>228.62</v>
       </c>
     </row>
@@ -8957,7 +8976,7 @@
       <c r="A103" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103">
         <v>10381.73</v>
       </c>
     </row>
@@ -8965,7 +8984,7 @@
       <c r="A104" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104">
         <v>6485.16</v>
       </c>
     </row>
@@ -8973,7 +8992,7 @@
       <c r="A105" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105">
         <v>3281.3999999999996</v>
       </c>
     </row>
@@ -8981,7 +9000,7 @@
       <c r="A106" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106">
         <v>11913</v>
       </c>
     </row>
@@ -8989,7 +9008,7 @@
       <c r="A107" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107">
         <v>8610.31</v>
       </c>
     </row>
@@ -8997,7 +9016,7 @@
       <c r="A108" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108">
         <v>7713.76</v>
       </c>
     </row>
@@ -9005,7 +9024,7 @@
       <c r="A109" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109">
         <v>11343.15</v>
       </c>
     </row>
@@ -9013,7 +9032,7 @@
       <c r="A110" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110">
         <v>10059.580000000002</v>
       </c>
     </row>
@@ -9021,7 +9040,7 @@
       <c r="A111" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111">
         <v>1781.5</v>
       </c>
     </row>
@@ -9029,7 +9048,7 @@
       <c r="A112" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112">
         <v>6402.28</v>
       </c>
     </row>
@@ -9037,7 +9056,7 @@
       <c r="A113" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113">
         <v>1282.0200000000002</v>
       </c>
     </row>
@@ -9045,7 +9064,7 @@
       <c r="A114" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114">
         <v>9395.3799999999992</v>
       </c>
     </row>
@@ -9053,7 +9072,7 @@
       <c r="A115" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115">
         <v>14165.269999999999</v>
       </c>
     </row>
@@ -9061,7 +9080,7 @@
       <c r="A116" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116">
         <v>10655.02</v>
       </c>
     </row>
@@ -9069,13 +9088,12 @@
       <c r="A117" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B117" s="4"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118">
         <v>2098952.0999999996</v>
       </c>
     </row>
@@ -9089,7 +9107,7 @@
   <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9107,7 +9125,7 @@
     <col min="11" max="11" width="5.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13019,18 +13037,21 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K114">
     <sortCondition ref="A1:A114"/>
   </sortState>
-  <conditionalFormatting sqref="C115:C1048576 C1">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="C2:C114">
+    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115:C1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C114">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  <conditionalFormatting sqref="C115:C1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:K1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>